--- a/backend/isp_peering_data.xlsx
+++ b/backend/isp_peering_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="196">
   <si>
     <t>ISP Name</t>
   </si>
@@ -34,16 +34,16 @@
     <t>Reliance Jio</t>
   </si>
   <si>
-    <t>Mahana, Zamania, Ghazipur District, Uttar Pradesh, 232333, India</t>
-  </si>
-  <si>
-    <t>Shirva-Merau-Godhra-Don, Dorne (Godhra), ગોધરા, Mandvi Taluka, Kutch District, Gujarat, 370405, India</t>
-  </si>
-  <si>
-    <t>Alappuzha, Ambalappuzha, Alappuzha District, Kerala, 688001, India</t>
-  </si>
-  <si>
-    <t>Binja Khedi, Ratlam Tahsil, Ratlam District, Madhya Pradesh, India</t>
+    <t>Mahana, Ghazipur District, Uttar Pradesh, 232333, India</t>
+  </si>
+  <si>
+    <t>Shirva-Merau-Godhra-Don, Kutch District, Gujarat, 370405, India</t>
+  </si>
+  <si>
+    <t>Alappuzha,  Alappuzha District, Kerala, 688001, India</t>
+  </si>
+  <si>
+    <t>Binja Khedi,  Ratlam District, Madhya Pradesh, India</t>
   </si>
   <si>
     <t>Airtel</t>
@@ -52,10 +52,16 @@
     <t>Falelung-02, Falelung, पाँचथर, कोशी प्रदेश, नेपाल</t>
   </si>
   <si>
-    <t>Patan, Aron Tahsil, Guna District, Madhya Pradesh, India</t>
-  </si>
-  <si>
-    <t>Jillapalle, Angirekalavaripalem, Nagaram, Bapatla District, Andhra Pradesh, 522259, India</t>
+    <t>Mahana,Ghazipur District, Uttar Pradesh, 232333, India</t>
+  </si>
+  <si>
+    <t>Patan,  Guna District, Madhya Pradesh, India</t>
+  </si>
+  <si>
+    <t>Jillapalle,  Bapatla District, Andhra Pradesh, 522259, India</t>
+  </si>
+  <si>
+    <t>Binja Khedi, Ratlam District, Madhya Pradesh, India</t>
   </si>
   <si>
     <t>Vodafone Idea</t>
@@ -1586,13 +1592,13 @@
   <dimension ref="A1:E185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="$A11:$XFD11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="32.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="45.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="60.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="29.6666666666667" customWidth="1"/>
     <col min="4" max="4" width="31.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="33.8888888888889" customWidth="1"/>
@@ -1705,7 +1711,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>25.456508</v>
@@ -1722,7 +1728,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>24.409578</v>
@@ -1739,7 +1745,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>16.057145</v>
@@ -1773,7 +1779,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>23.3148</v>
@@ -1787,10 +1793,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>32.419963</v>
@@ -1804,10 +1810,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>27.088915</v>
@@ -1821,10 +1827,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>14.998376</v>
@@ -1838,10 +1844,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>24.313193</v>
@@ -1855,10 +1861,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>32.015656</v>
@@ -1872,10 +1878,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>24.393127</v>
@@ -1889,10 +1895,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <v>36.819699</v>
@@ -1906,10 +1912,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C19">
         <v>33.476549</v>
@@ -1923,10 +1929,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C20">
         <v>23.879565</v>
@@ -1940,10 +1946,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C21">
         <v>22.427343</v>
@@ -1957,10 +1963,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>27.653916</v>
@@ -1974,10 +1980,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C23">
         <v>24.868251</v>
@@ -1991,10 +1997,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C24">
         <v>21.991666</v>
@@ -2008,10 +2014,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C25">
         <v>22.566994</v>
@@ -2025,10 +2031,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C26">
         <v>34.048509</v>
@@ -2042,10 +2048,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C27">
         <v>30.357057</v>
@@ -2059,10 +2065,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C28">
         <v>31.927989</v>
@@ -2076,10 +2082,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>36.911283</v>
@@ -2093,10 +2099,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C30">
         <v>27.228669</v>
@@ -2110,10 +2116,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C31">
         <v>25.896295</v>
@@ -2127,10 +2133,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C32">
         <v>29.247461</v>
@@ -2144,10 +2150,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C33">
         <v>22.120214</v>
@@ -2161,10 +2167,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C34">
         <v>21.937248</v>
@@ -2178,10 +2184,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C35">
         <v>27.187113</v>
@@ -2195,10 +2201,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C36">
         <v>29.65617</v>
@@ -2212,10 +2218,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C37">
         <v>21.209451</v>
@@ -2229,10 +2235,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C38">
         <v>20.167714</v>
@@ -2246,10 +2252,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C39">
         <v>28.58156</v>
@@ -2263,10 +2269,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C40">
         <v>31.47593</v>
@@ -2280,10 +2286,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C41">
         <v>12.135283</v>
@@ -2297,10 +2303,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C42">
         <v>8.258503</v>
@@ -2314,10 +2320,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C43">
         <v>36.969748</v>
@@ -2331,10 +2337,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C44">
         <v>26.76576</v>
@@ -2348,10 +2354,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C45">
         <v>23.531097</v>
@@ -2365,10 +2371,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C46">
         <v>36.508562</v>
@@ -2382,10 +2388,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C47">
         <v>28.120347</v>
@@ -2399,10 +2405,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C48">
         <v>25.359829</v>
@@ -2416,10 +2422,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C49">
         <v>29.962689</v>
@@ -2433,10 +2439,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C50">
         <v>18.958382</v>
@@ -2450,10 +2456,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C51">
         <v>23.569154</v>
@@ -2467,10 +2473,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C52">
         <v>23.820859</v>
@@ -2484,10 +2490,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C53">
         <v>20.019534</v>
@@ -2501,10 +2507,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C54">
         <v>35.107167</v>
@@ -2518,10 +2524,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C55">
         <v>19.759842</v>
@@ -2535,10 +2541,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C56">
         <v>32.444538</v>
@@ -2552,10 +2558,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C57">
         <v>12.343714</v>
@@ -2569,10 +2575,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C58">
         <v>28.591589</v>
@@ -2586,10 +2592,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C59">
         <v>29.362525</v>
@@ -2603,10 +2609,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C60">
         <v>33.530809</v>
@@ -2620,10 +2626,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C61">
         <v>19.135553</v>
@@ -2637,10 +2643,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C62">
         <v>12.192545</v>
@@ -2654,10 +2660,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C63">
         <v>33.117748</v>
@@ -2671,10 +2677,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C64">
         <v>24.709697</v>
@@ -2688,10 +2694,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C65">
         <v>33.968645</v>
@@ -2705,10 +2711,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C66">
         <v>17.572063</v>
@@ -2722,10 +2728,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C67">
         <v>26.191252</v>
@@ -2739,10 +2745,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B68" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C68">
         <v>22.091436</v>
@@ -2756,10 +2762,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C69">
         <v>32.494807</v>
@@ -2773,10 +2779,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C70">
         <v>20.301618</v>
@@ -2790,10 +2796,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C71">
         <v>36.04139</v>
@@ -2807,10 +2813,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C72">
         <v>8.845537</v>
@@ -2824,10 +2830,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C73">
         <v>18.06313</v>
@@ -2841,10 +2847,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C74">
         <v>35.32164</v>
@@ -2858,10 +2864,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C75">
         <v>26.642081</v>
@@ -2875,10 +2881,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C76">
         <v>20.128534</v>
@@ -2892,10 +2898,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C77">
         <v>36.508191</v>
@@ -2909,10 +2915,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C78">
         <v>25.432293</v>
@@ -2926,10 +2932,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C79">
         <v>30.843217</v>
@@ -2943,10 +2949,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C80">
         <v>12.884441</v>
@@ -2960,10 +2966,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C81">
         <v>27.333449</v>
@@ -2977,10 +2983,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C82">
         <v>34.225575</v>
@@ -2994,10 +3000,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C83">
         <v>26.852216</v>
@@ -3011,10 +3017,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C84">
         <v>35.703639</v>
@@ -3028,10 +3034,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B85" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C85">
         <v>27.325238</v>
@@ -3045,10 +3051,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B86" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C86">
         <v>18.446294</v>
@@ -3062,10 +3068,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B87" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C87">
         <v>15.831599</v>
@@ -3079,10 +3085,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B88" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C88">
         <v>34.314132</v>
@@ -3096,10 +3102,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B89" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C89">
         <v>22.767101</v>
@@ -3113,10 +3119,10 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C90">
         <v>30.811893</v>
@@ -3130,10 +3136,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C91">
         <v>33.106645</v>
@@ -3147,10 +3153,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C92">
         <v>21.869209</v>
@@ -3164,10 +3170,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B93" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C93">
         <v>23.63615</v>
@@ -3181,10 +3187,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B94" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C94">
         <v>30.054325</v>
@@ -3198,10 +3204,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B95" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C95">
         <v>30.259716</v>
@@ -3215,10 +3221,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C96">
         <v>31.782971</v>
@@ -3232,10 +3238,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B97" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C97">
         <v>25.676151</v>
@@ -3249,10 +3255,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B98" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C98">
         <v>10.651099</v>
@@ -3266,10 +3272,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B99" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C99">
         <v>29.154877</v>
@@ -3283,10 +3289,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B100" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C100">
         <v>31.206186</v>
@@ -3300,10 +3306,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B101" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C101">
         <v>25.073712</v>
@@ -3317,10 +3323,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B102" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C102">
         <v>27.817142</v>
@@ -3334,10 +3340,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B103" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C103">
         <v>30.12447</v>
@@ -3351,10 +3357,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B104" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C104">
         <v>22.649309</v>
@@ -3368,10 +3374,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B105" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C105">
         <v>32.845094</v>
@@ -3385,10 +3391,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B106" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C106">
         <v>24.596248</v>
@@ -3402,10 +3408,10 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B107" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C107">
         <v>35.40668</v>
@@ -3419,10 +3425,10 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B108" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C108">
         <v>32.588236</v>
@@ -3436,10 +3442,10 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B109" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C109">
         <v>16.80559</v>
@@ -3453,10 +3459,10 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C110">
         <v>30.109343</v>
@@ -3470,10 +3476,10 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B111" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C111">
         <v>30.962266</v>
@@ -3487,10 +3493,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B112" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C112">
         <v>20.855261</v>
@@ -3504,10 +3510,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B113" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C113">
         <v>26.265126</v>
@@ -3521,10 +3527,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B114" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C114">
         <v>35.82658</v>
@@ -3538,10 +3544,10 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B115" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C115">
         <v>31.170459</v>
@@ -3555,10 +3561,10 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B116" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C116">
         <v>32.799596</v>
@@ -3572,10 +3578,10 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B117" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C117">
         <v>25.422326</v>
@@ -3589,10 +3595,10 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B118" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C118">
         <v>23.522914</v>
@@ -3606,10 +3612,10 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C119">
         <v>26.683675</v>
@@ -3623,10 +3629,10 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C120">
         <v>34.500468</v>
@@ -3640,10 +3646,10 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B121" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C121">
         <v>33.456142</v>
@@ -3657,10 +3663,10 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B122" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C122">
         <v>17.081259</v>
@@ -3674,10 +3680,10 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B123" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C123">
         <v>22.296199</v>
@@ -3691,10 +3697,10 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B124" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C124">
         <v>32.834572</v>
@@ -3708,10 +3714,10 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B125" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C125">
         <v>30.038142</v>
@@ -3725,10 +3731,10 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B126" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C126">
         <v>31.748752</v>
@@ -3742,10 +3748,10 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C127">
         <v>19.263115</v>
@@ -3759,10 +3765,10 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C128">
         <v>14.430088</v>
@@ -3776,10 +3782,10 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B129" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C129">
         <v>25.475122</v>
@@ -3793,10 +3799,10 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B130" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C130">
         <v>25.762159</v>
@@ -3810,10 +3816,10 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B131" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C131">
         <v>21.66523</v>
@@ -3827,10 +3833,10 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B132" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C132">
         <v>16.864743</v>
@@ -3844,10 +3850,10 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B133" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C133">
         <v>35.881849</v>
@@ -3861,10 +3867,10 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B134" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C134">
         <v>28.128785</v>
@@ -3878,10 +3884,10 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B135" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C135">
         <v>31.437792</v>
@@ -3895,10 +3901,10 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C136">
         <v>33.34279</v>
@@ -3912,10 +3918,10 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C137">
         <v>22.576887</v>
@@ -3929,10 +3935,10 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B138" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C138">
         <v>22.958527</v>
@@ -3946,10 +3952,10 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B139" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C139">
         <v>34.79498</v>
@@ -3963,10 +3969,10 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B140" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C140">
         <v>24.519093</v>
@@ -3980,10 +3986,10 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B141" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C141">
         <v>26.476498</v>
@@ -3997,10 +4003,10 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B142" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C142">
         <v>31.338655</v>
@@ -4014,10 +4020,10 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B143" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C143">
         <v>14.422132</v>
@@ -4031,10 +4037,10 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B144" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C144">
         <v>26.101413</v>
@@ -4048,10 +4054,10 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B145" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C145">
         <v>28.101111</v>
@@ -4065,10 +4071,10 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C146">
         <v>36.103831</v>
@@ -4082,10 +4088,10 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C147">
         <v>31.261302</v>
@@ -4099,10 +4105,10 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B148" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C148">
         <v>25.957982</v>
@@ -4116,10 +4122,10 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B149" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C149">
         <v>21.769105</v>
@@ -4133,10 +4139,10 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B150" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C150">
         <v>26.721529</v>
@@ -4150,10 +4156,10 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B151" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C151">
         <v>9.713693</v>
@@ -4167,10 +4173,10 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B152" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C152">
         <v>22.212903</v>
@@ -4184,10 +4190,10 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B153" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C153">
         <v>19.096882</v>
@@ -4201,10 +4207,10 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B154" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C154">
         <v>24.465239</v>
@@ -4218,10 +4224,10 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B155" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C155">
         <v>31.316516</v>
@@ -4235,10 +4241,10 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C156">
         <v>32.369162</v>
@@ -4252,10 +4258,10 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B157" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C157">
         <v>16.485454</v>
@@ -4269,10 +4275,10 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B158" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C158">
         <v>27.541248</v>
@@ -4286,10 +4292,10 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B159" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C159">
         <v>35.948877</v>
@@ -4303,10 +4309,10 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B160" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C160">
         <v>27.528299</v>
@@ -4320,10 +4326,10 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B161" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C161">
         <v>19.105875</v>
@@ -4337,10 +4343,10 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B162" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C162">
         <v>30.101413</v>
@@ -4354,10 +4360,10 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B163" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C163">
         <v>21.331958</v>
@@ -4371,10 +4377,10 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B164" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C164">
         <v>20.709412</v>
@@ -4388,10 +4394,10 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B165" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C165">
         <v>27.656028</v>
@@ -4405,10 +4411,10 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B166" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C166">
         <v>10.001201</v>
@@ -4422,10 +4428,10 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B167" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C167">
         <v>31.527287</v>
@@ -4439,10 +4445,10 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B168" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C168">
         <v>15.696862</v>
@@ -4456,10 +4462,10 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B169" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C169">
         <v>22.081077</v>
@@ -4473,10 +4479,10 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B170" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C170">
         <v>30.380052</v>
@@ -4490,10 +4496,10 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B171" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C171">
         <v>36.672961</v>
@@ -4507,10 +4513,10 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B172" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C172">
         <v>30.256683</v>
@@ -4524,10 +4530,10 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B173" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C173">
         <v>20.294345</v>
@@ -4541,10 +4547,10 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B174" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C174">
         <v>28.240791</v>
@@ -4558,10 +4564,10 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B175" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C175">
         <v>23.77843</v>
@@ -4575,10 +4581,10 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B176" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C176">
         <v>30.236126</v>
@@ -4592,10 +4598,10 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B177" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C177">
         <v>11.685271</v>
@@ -4609,10 +4615,10 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B178" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C178">
         <v>22.989374</v>
@@ -4626,10 +4632,10 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B179" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C179">
         <v>31.022411</v>
@@ -4643,10 +4649,10 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B180" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C180">
         <v>35.914837</v>
@@ -4660,10 +4666,10 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B181" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C181">
         <v>17.89901</v>
@@ -4677,10 +4683,10 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B182" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C182">
         <v>36.338259</v>
@@ -4694,10 +4700,10 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B183" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C183">
         <v>10.336198</v>
@@ -4711,10 +4717,10 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B184" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C184">
         <v>34.845633</v>
@@ -4728,10 +4734,10 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B185" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C185">
         <v>35.997481</v>
